--- a/data/step_case_shg.xlsx
+++ b/data/step_case_shg.xlsx
@@ -1,307 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="上交所固收（XSHG_FIX）" sheetId="1" r:id="rId1"/>
+    <sheet name="上交所固收（XSHG_FIX）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'上交所固收（XSHG_FIX）'!$A$1:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>编号[0]</t>
-  </si>
-  <si>
-    <t>story(业务小模块)[1]</t>
-  </si>
-  <si>
-    <t>用例名title[2]</t>
-  </si>
-  <si>
-    <t>用例描述[3]</t>
-  </si>
-  <si>
-    <t>用例级别[4]</t>
-  </si>
-  <si>
-    <t>功能号(action)[5]</t>
-  </si>
-  <si>
-    <t>选取报文文件[6]</t>
-  </si>
-  <si>
-    <t>修改参数[7]</t>
-  </si>
-  <si>
-    <t>数据库SQL[8]</t>
-  </si>
-  <si>
-    <t>数据库变量[9]</t>
-  </si>
-  <si>
-    <t>数据库预期结果[10]</t>
-  </si>
-  <si>
-    <t>测试结果[11]</t>
-  </si>
-  <si>
-    <t>模块是否执行[12]</t>
-  </si>
-  <si>
-    <t>协商成交（XSCJ_SHG）_正向用例</t>
-  </si>
-  <si>
-    <t>上交所协商成交_正常申报</t>
-  </si>
-  <si>
-    <t>上交所协商成交各接口各要素正确，申报成功</t>
-  </si>
-  <si>
-    <t>blocker</t>
-  </si>
-  <si>
-    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
-  </si>
-  <si>
-    <t>{"matchNo":"110","sysOrdID":""}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
-  </si>
-  <si>
-    <t>all_val["sysOrdID"]</t>
-  </si>
-  <si>
-    <t>{"ORDSTATUS":5</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>上交所协商成交_正常撤单</t>
-  </si>
-  <si>
-    <t>上交所协商成交各接口各要素正确，撤单成功</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
-  </si>
-  <si>
-    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
-  </si>
-  <si>
-    <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W"}</t>
-  </si>
-  <si>
-    <t>协商成交（XSCJ_SHG）_反向用例</t>
-  </si>
-  <si>
-    <t>上交所协商成交_正常成交</t>
-  </si>
-  <si>
-    <t>上交所协商成交各接口各要素正确，正常成交</t>
-  </si>
-  <si>
-    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
-  </si>
-  <si>
-    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.8893","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
-  </si>
-  <si>
-    <t>{"ORDSTATUS":7}</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -602,162 +480,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -813,11 +691,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1077,197 +1018,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.8055555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.3148148148148" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1944444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.4907407407407" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.4074074074074" style="1" customWidth="1"/>
-    <col min="7" max="7" width="82.9074074074074" style="1" customWidth="1"/>
-    <col min="8" max="8" width="80.4166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="98.9351851851852" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.8611111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="88.6851851851852" style="1" customWidth="1"/>
-    <col min="12" max="12" width="65.2222222222222" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="11.8055555555556" customWidth="1" style="1" min="1" max="1"/>
+    <col width="44.3148148148148" customWidth="1" style="1" min="2" max="2"/>
+    <col width="40.1944444444444" customWidth="1" style="1" min="3" max="3"/>
+    <col width="53.4907407407407" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.8333333333333" customWidth="1" style="1" min="5" max="5"/>
+    <col width="25.4074074074074" customWidth="1" style="1" min="6" max="6"/>
+    <col width="82.9074074074074" customWidth="1" style="1" min="7" max="7"/>
+    <col width="80.4166666666667" customWidth="1" style="1" min="8" max="8"/>
+    <col width="98.9351851851852" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.5185185185185" customWidth="1" style="1" min="10" max="10"/>
+    <col width="88.6851851851852" customWidth="1" style="1" min="11" max="11"/>
+    <col width="65.2222222222222" customWidth="1" style="1" min="12" max="12"/>
+    <col width="23" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>编号[0]</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>story(业务小模块)[1]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>用例名title[2]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>用例描述[3]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>用例级别[4]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>功能号(action)[5]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>选取报文文件[6]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>修改参数[7]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>数据库SQL[8]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>数据库变量[9]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>数据库预期结果[10]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>测试结果[11]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>模块是否执行[12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="47" customHeight="1">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常申报</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，申报成功</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>{"matchNo":"110","sysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="74" customHeight="1">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常撤单</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，撤单成功</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>1101;1102</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"ACT_STATUS":"2","ACTTYPE":"W"};{"ACTSTATUS":2,"ACTTYPE":"W"}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="83" customHeight="1">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="47" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1101</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="74" customHeight="1" spans="1:13">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1101</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="83" customHeight="1" spans="1:13">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1101</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常成交</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，正常成交</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>1101;1101</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":7}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>测试不通过</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L4">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:L4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/step_case_shg.xlsx
+++ b/data/step_case_shg.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="上交所固收（XSHG_FIX）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'上交所固收（XSHG_FIX）'!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'上交所固收（XSHG_FIX）'!$A$1:$L$22</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -33,32 +33,22 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="等线"/>
@@ -74,14 +64,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,6 +103,21 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,12 +169,33 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -186,49 +204,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +348,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,108 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -381,16 +405,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,6 +448,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,213 +519,217 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1023,103 +1066,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.8055555555556" customWidth="1" style="1" min="1" max="1"/>
-    <col width="44.3148148148148" customWidth="1" style="1" min="2" max="2"/>
-    <col width="40.1944444444444" customWidth="1" style="1" min="3" max="3"/>
-    <col width="53.4907407407407" customWidth="1" style="1" min="4" max="4"/>
-    <col width="15.8333333333333" customWidth="1" style="1" min="5" max="5"/>
-    <col width="25.4074074074074" customWidth="1" style="1" min="6" max="6"/>
-    <col width="82.9074074074074" customWidth="1" style="1" min="7" max="7"/>
-    <col width="80.4166666666667" customWidth="1" style="1" min="8" max="8"/>
-    <col width="98.9351851851852" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.5185185185185" customWidth="1" style="1" min="10" max="10"/>
-    <col width="88.6851851851852" customWidth="1" style="1" min="11" max="11"/>
-    <col width="65.2222222222222" customWidth="1" style="1" min="12" max="12"/>
-    <col width="23" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="11.6759259259259" customWidth="1" style="1" min="1" max="1"/>
+    <col width="38.6018518518519" customWidth="1" style="1" min="2" max="2"/>
+    <col width="26.1203703703704" customWidth="1" style="1" min="3" max="3"/>
+    <col width="57.0925925925926" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.75" customWidth="1" style="1" min="5" max="5"/>
+    <col width="23.3055555555556" customWidth="1" style="1" min="6" max="6"/>
+    <col width="50.7777777777778" customWidth="1" style="1" min="7" max="9"/>
+    <col width="23.3055555555556" customWidth="1" style="1" min="10" max="10"/>
+    <col width="57.962962962963" customWidth="1" style="1" min="11" max="11"/>
+    <col width="16.8611111111111" customWidth="1" style="1" min="12" max="12"/>
+    <col width="22.9351851851852" customWidth="1" style="1" min="13" max="13"/>
+    <col width="41.2407407407407" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>编号[0]</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>story(业务小模块)[1]</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>用例名title[2]</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>用例描述[3]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>用例级别[4]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>功能号(action)[5]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>选取报文文件[6]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>修改参数[7]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>数据库SQL[8]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>数据库变量[9]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>数据库预期结果[10]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>测试结果[11]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>模块是否执行[12]</t>
         </is>
       </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>备注信息</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="47" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="54" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1134,7 +1181,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>上交所协商成交各接口各要素正确，申报成功</t>
+          <t>上交所协商成交各接口各要素正确，方向卖出，申报成功</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -1142,47 +1189,48 @@
           <t>blocker</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <v>1101</v>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>{"matchNo":"110","sysOrdID":""}</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"110","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.000"}</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>all_val["sysOrdID"]</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>{"ORDSTATUS":2}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"S","S_ORDCOUNT":100,"S_ORDPRICE":102.0000}</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>测试通过</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
+      <c r="N2" s="6" t="n"/>
     </row>
-    <row r="3" ht="74" customHeight="1">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="58" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -1192,127 +1240,1298 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
+          <t>上交所协商成交_正常申报</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，方向买入，申报成功</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"111","sysOrdID":"","dir":"B","bOrdCount":"100","bOrdPrice":"102.000","sOrdCount":"0","sOrdPrice":"0"}</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.B_ORDCOUNT,t.B_ORDPRICE,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"B","B_ORDCOUNT":100,"B_ORDPRICE":102.0000}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="76" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
           <t>上交所协商成交_正常撤单</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>上交所协商成交各接口各要素正确，撤单成功</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，方向卖出，撤单成功</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>1101;1102</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"112","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.000"};{"orgSysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.act_status,t.acttype ,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W","DIR":"S","S_ORDCOUNT":100,"S_ORDPRICE":102.0000};{"ACTSTATUS":6,"ACTTYPE":"W"}</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="76" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常撤单</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，方向买入，撤单成功</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>1101;1102</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"100","bOrdPrice":"102.000","sOrdCount":"0","sOrdPrice":"0"};{"orgSysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.act_status,t.acttype,t.dir,t.B_ORDCOUNT,t. B_ORDPRICE from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W","DIR":"B","B_ORDCOUNT":100,"B_ORDPRICE":102.0000};{"ACTSTATUS":6,"ACTTYPE":"W"}</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="105" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常成交</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，方向卖出，正常成交</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>1101;1101</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"114","sysOrdID":"","dir":"B","bOrdCount":"100","bOrdPrice":"102.000","sOrdCount":"0","sOrdPrice":"0","trader":"Z31606","obTrader":"Z31608"};
+{"sysOrdID":"","matchNo":"114","dir":"S","sOrdCount":"100","sOrdPrice":"102.000","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31606"}</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select t.ordstatus,t.dir,t.B_ORDCOUNT,t.B_ORDPRICE,t.trader,t.ob_Trader from ttrd_fix_order t  where t.match_No='114' and t.trader='Z31606' and t.ob_Trader='Z31608'and t.sysordid!={0};select t.ordstatus,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE,t.trader,t.ob_Trader from ttrd_fix_order t  where t.sysordid={0} </t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":7,"DIR":"B","B_ORDCOUNT":100,"B_ORDPRICE":102.0000,"TRADER":"Z31606","OB_TRADER":"Z31608"};{"ORDSTATUS":7,"DIR":"S","S_ORDCOUNT":100,"S_ORDPRICE":102.0000,"TRADER":"Z31608","OB_TRADER":"Z31606"}</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="132" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常成交</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交各接口各要素正确，方向买入，正常成交</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>1101;1101</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"115","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.000","trader":"Z31606","obTrader":"Z31608"};
+{"sysOrdID":"","matchNo":"115","dir":"B","sOrdCount":"0","sOrdPrice":"0","bOrdCount":"100","bOrdPrice":"102.000","trader":"Z31608","obTrader":"Z31606"}</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select t.ordstatus,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE,t.trader,t.ob_Trader from ttrd_fix_order t  where t.match_No='115' and t.trader='Z31606' and t.ob_Trader='Z31608'and t.sysordid!={0};select t.ordstatus,t.dir,t.B_ORDCOUNT,t.B_ORDPRICE,t.trader,t.ob_Trader from ttrd_fix_order t  where t.sysordid={0} </t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":7,"DIR":"S","S_ORDCOUNT":100,"S_ORDPRICE":102.0000,"TRADER":"Z31606","OB_TRADER":"Z31608"};{"ORDSTATUS":7,"DIR":"B","B_ORDCOUNT":100,"B_ORDPRICE":102.0000,"TRADER":"Z31608","OB_TRADER":"Z31606"}</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易方向校验</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_方向校验</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交除交易方向其他要素正确，交易方向为空，价格数量S填写</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"116","sysOrdID":"","dir":"","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.000"}</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":None,"S_ORDCOUNT":100,"S_ORDPRICE":102.0000}</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="53" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易方向校验</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_方向校验</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交除交易方向其他要素正确，交易方向为空，价格数量B填写</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"117","sysOrdID":"","dir":"","bOrdCount":"100","bOrdPrice":"102.000","sOrdCount":"0","sOrdPrice":"0"}</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.B_ORDCOUNT,t.B_ORDPRICE,t.errcode,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"DIR":None,"ERRCODE":-2008,"ERRINFO":":Tag=44:7001|不能为0"}</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="53" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易方向校验</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_方向校验</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交除交易方向其他要素正确，交易方向为D</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>{"matchNo":"118","sysOrdID":"","dir":"D","bOrdCount":"100","bOrdPrice":"102","sOrdCount":"100","sOrdPrice":"102.000"}</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>select t.dir,t.ordstatus,t.errinfo,t.S_ORDCOUNT,t.S_ORDPRICE from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"D","S_ORDCOUNT":100,"S_ORDPRICE":102.0000}</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易方向校验</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_方向校验</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交除交易方向其他要素正确，交易方向为C</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>{"matchNo":"119","sysOrdID":"","dir":"C","bOrdCount":"100","bOrdPrice":"102","sOrdCount":"100","sOrdPrice":"102.000"}</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.S_ORDCOUNT,t.S_ORDPRICE,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"C","S_ORDCOUNT":100,"S_ORDPRICE":102.0000,}</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易价格位数校验</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验_三位小数</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"120","sysOrdID":"","dir":"B","bOrdCount":"100","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0"}</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.dir,t.B_ORDCOUNT,t.B_ORDPRICE from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"B","B_ORDCOUNT":100,"B_ORDPRICE":102.889}</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="45" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易价格位数校验</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验_四位小数，最后一位为0</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"121","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.8880"}</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"ERRCODE":-2008,"ERRINFO":":Tag=44:7004|小数点后保留位数错误"}</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_交易价格位数校验</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_交易价格校验_四位小数，最后一位不为0</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"122","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.8888"}</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"ERRCODE":-2008,"ERRINFO":":Tag=44:7004|小数点后保留位数错误"}</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="45" customHeight="1">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_约定号校验</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验，约定号超过3位</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"1223","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.888"}</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"ERRCODE":-2008,"ERRINFO":":Tag=664:7003|长度错误"}</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_约定号校验</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验，约定号为非数字</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"12k","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.888"}</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode,t.match_no from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"MATCH_NO":"12k"}</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="inlineStr">
+        <is>
+          <t>接口不校验，是否是纯数字，前台客户端控制</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_约定号校验</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验，存在已报相同的约定号</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"110","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.888"}</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":2,"ERRCODE":-2008,"ERRINFO":"1302:约定号重复"}</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>协商成交（XSCJ_SHG）_反向用例_约定号校验</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_约定号校验，存在已成交的相同的约定号</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>{"matchNo":"115","sysOrdID":"","dir":"S","bOrdCount":"0","bOrdPrice":"0","sOrdCount":"100","sOrdPrice":"102.888"}</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5}</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N18" s="7" t="inlineStr">
+        <is>
+          <t>已经全部成交的约定号，可以再重复使用该
+约定号报价</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="87" customHeight="1">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>确定报价（QDBJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价_正常申报</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价各接口各要素正确，方向为双边，申报成功</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_QDBJ.xml</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>{"sysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.dir,t.declare_type,t.trader,t.S_ORDCOUNT,t.S_ORDPRICE,t.B_ORDCOUNT,t.B_ORDPRICE from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5,"DIR":"D","DECLARE_TYPE":"6","TRADER":"Z31608","S_ORDCOUNT":1000,"S_ORDPRICE":102.22,"B_ORDCOUNT":1000,"B_ORDPRICE":101.12}</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="79" customHeight="1">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>确定报价（QDBJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价_正常撤单</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价各接口各要素正确，方向为双边，申报成功之后撤单成功</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>1101;1102</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_QDBJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>{"sysOrdID":""};{"orgSysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>all_val["sysOrdID"]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>{"ORDSTATUS":2,"ACT_STATUS":"2","ACTTYPE":"W"};{"ACTSTATUS":2,"ACTTYPE":"W"}</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W"};{"ACTSTATUS":6,"ACTTYPE":"W"}</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t>测试通过</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
+      <c r="N20" s="6" t="n"/>
     </row>
-    <row r="4" ht="83" customHeight="1">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>协商成交（XSCJ_SHG）_正向用例</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>上交所协商成交_正常成交</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>上交所协商成交各接口各要素正确，正常成交</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>确定报价（QDBJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常撤单</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价各接口各要素正确，方向为双边，申报成功</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>blocker</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>1101;1101</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="F21" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_QDBJ.xml</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>{"sysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>all_val["sysOrdID"]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>{"ORDSTATUS":7}</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>测试不通过</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5}</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
+      <c r="N21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>确定报价（QDBJ_SHG）_正向用例</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>上交所协商成交_正常撤单</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>上交所确定报价各接口各要素正确，方向为双边，申报成功</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>blocker</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>data/shg_fix/DS_1101_SHG_Fix_QDBJ.xml</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>{"sysOrdID":""}</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>select t.ordstatus,t.errinfo,t.errcode from ttrd_fix_order t  where t.sysordid={0}</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>all_val["sysOrdID"]</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>{"ORDSTATUS":5}</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N22" s="6" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L4"/>
+  <autoFilter ref="A1:L22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/step_case_shg.xlsx
+++ b/data/step_case_shg.xlsx
@@ -1069,11 +1069,11 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M22"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N3" s="6" t="n"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N4" s="6" t="n"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N5" s="6" t="n"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N6" s="6" t="n"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N7" s="6" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N8" s="6" t="n"/>
@@ -1677,12 +1677,12 @@
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N9" s="6" t="n"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N10" s="6" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N11" s="6" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N12" s="6" t="n"/>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N13" s="6" t="n"/>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N14" s="6" t="n"/>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N15" s="6" t="n"/>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N16" s="6" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N17" s="6" t="n"/>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N18" s="7" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N19" s="6" t="n"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N20" s="6" t="n"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N21" s="6" t="n"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>测试通过</t>
+          <t>测试不通过</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr">

--- a/data/step_case_shg.xlsx
+++ b/data/step_case_shg.xlsx
@@ -1224,7 +1224,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N3" s="6" t="n"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N4" s="6" t="n"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N5" s="6" t="n"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N6" s="6" t="n"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N7" s="6" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N8" s="6" t="n"/>
@@ -1677,12 +1677,12 @@
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N9" s="6" t="n"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N10" s="6" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N11" s="6" t="n"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N12" s="6" t="n"/>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N13" s="6" t="n"/>
@@ -1997,12 +1997,12 @@
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N14" s="6" t="n"/>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N15" s="6" t="n"/>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N16" s="6" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N17" s="6" t="n"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N18" s="7" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N19" s="6" t="n"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N20" s="6" t="n"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="N21" s="6" t="n"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr">

--- a/data/step_case_shg.xlsx
+++ b/data/step_case_shg.xlsx
@@ -1069,11 +1069,11 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M21"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>测试不通过</t>
+          <t>测试通过</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr">
